--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/DISTRICT_OF_COLUMBIA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/DISTRICT_OF_COLUMBIA_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mazatan</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nicolas Romero</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>San Francisco Del Rincon</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -1078,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -1091,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1104,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zitlala</t>
@@ -1117,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Salvador</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tepoztlan</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1485,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Asuncion Ixtaltepec</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Coatecas Altas</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Coicoyan De Las Flores</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Concepcion Buenavista</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De Leon</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Ixtlan De Juarez</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Miahuatlan De Porfirio Diaz</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Andres Zautla</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Francisco Telixtlahuaca</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlan</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Juan Bautista Guelache</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlan</t>
@@ -1706,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>San Miguel Piedras</t>
@@ -1719,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1732,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -1745,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santa Maria Lachixio</t>
@@ -1758,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Santo Tomas Ocotepec</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Silacayoapam</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -1836,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1867,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Acatlan</t>
@@ -1880,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1893,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Chapulco</t>
@@ -1906,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1919,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -1932,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>General Felipe _Ngeles</t>
@@ -1945,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1958,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1971,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -1984,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1997,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>San Andres Cholula</t>
@@ -2010,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Jose Miahuatlan</t>
@@ -2023,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>San Juan Atenco</t>
@@ -2036,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -2049,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -2062,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2075,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -2088,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -2101,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Teziutlan</t>
@@ -2114,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juarez</t>
@@ -2127,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tlapanala</t>
@@ -2140,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -2153,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Xayacatlan De Bravo</t>
@@ -2166,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2179,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -2192,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2205,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2218,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2231,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2262,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2293,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -2306,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -2319,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -2332,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2363,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -2376,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2407,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2438,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -2451,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Tocatlan</t>
@@ -2464,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2495,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2508,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -2521,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2534,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2547,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2560,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2573,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Rafael Delgado</t>
@@ -2586,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -2599,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -2612,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2625,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2638,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2651,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2682,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
